--- a/MitkoGit/Upraznenie5/TestCaseAutomationPracticeSite.xlsx
+++ b/MitkoGit/Upraznenie5/TestCaseAutomationPracticeSite.xlsx
@@ -67,9 +67,6 @@
     <t>Find mens cloting section, find product size and color</t>
   </si>
   <si>
-    <t>http://automationpractice.com</t>
-  </si>
-  <si>
     <t>Dimitar Georgiev</t>
   </si>
   <si>
@@ -91,10 +88,13 @@
     <t>Find size L green collor</t>
   </si>
   <si>
-    <t>4.Tray search site engine find jacket size L green collor</t>
-  </si>
-  <si>
-    <t>Result is the same like syep 3</t>
+    <t>http://automationpractice.com, mens category, green gacket size L</t>
+  </si>
+  <si>
+    <t>Open in new page</t>
+  </si>
+  <si>
+    <t>Open product in new page</t>
   </si>
 </sst>
 </file>
@@ -194,6 +194,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -202,12 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -566,7 +566,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,18 +578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -627,8 +627,8 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>43607</v>
       </c>
     </row>
@@ -650,14 +650,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -669,31 +669,31 @@
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>24</v>
@@ -705,7 +705,7 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://automationpractice.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
